--- a/tables/TableS1_micronutrients.xlsx
+++ b/tables/TableS1_micronutrients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/fortification/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956D08FA-E1FD-6245-A94A-F92F5317EF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC84678-C79C-204F-B940-66B3E55F9A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10880" yWindow="1800" windowWidth="27640" windowHeight="16940" xr2:uid="{07277DBE-0E05-8B48-8F1C-7ABD150983EB}"/>
+    <workbookView xWindow="12300" yWindow="2380" windowWidth="27640" windowHeight="16940" xr2:uid="{07277DBE-0E05-8B48-8F1C-7ABD150983EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>Food vehicle</t>
   </si>
   <si>
-    <t>AR source</t>
-  </si>
-  <si>
     <t>Vitamin A</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>Log-normal</t>
+  </si>
+  <si>
+    <t>AR source**</t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -534,7 +534,7 @@
     <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -550,313 +550,313 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
       <c r="E2">
         <v>0.1</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0.1</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
       <c r="E4">
         <v>0.1</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0.25</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0.1</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0.1</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0.1</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0.1</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0.1</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0.1</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0.1</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>0.1</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0.1</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0.1</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>0.1</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/tables/TableS1_micronutrients.xlsx
+++ b/tables/TableS1_micronutrients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/fortification/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC84678-C79C-204F-B940-66B3E55F9A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9783955C-538F-354C-8E55-534D33285140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12300" yWindow="2380" windowWidth="27640" windowHeight="16940" xr2:uid="{07277DBE-0E05-8B48-8F1C-7ABD150983EB}"/>
+    <workbookView xWindow="9680" yWindow="2420" windowWidth="25880" windowHeight="17600" xr2:uid="{07277DBE-0E05-8B48-8F1C-7ABD150983EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,26 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
-  <si>
-    <t>Type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
   <si>
     <t>Micronutrient</t>
   </si>
   <si>
-    <t>Food vehicle</t>
-  </si>
-  <si>
     <t>Vitamin A</t>
   </si>
   <si>
     <t>Vitamin E</t>
   </si>
   <si>
-    <t>Vitamin</t>
-  </si>
-  <si>
     <t>Rice, wheat flour, maize flour, oil</t>
   </si>
   <si>
@@ -65,9 +56,6 @@
     <t>Rice, oil</t>
   </si>
   <si>
-    <t>Mineral</t>
-  </si>
-  <si>
     <t>Iron</t>
   </si>
   <si>
@@ -135,13 +123,28 @@
   </si>
   <si>
     <t>AR source**</t>
+  </si>
+  <si>
+    <t>UL source</t>
+  </si>
+  <si>
+    <t>Vitamins</t>
+  </si>
+  <si>
+    <t>Minerals</t>
+  </si>
+  <si>
+    <t>Food vehicle(s)</t>
+  </si>
+  <si>
+    <t>EFSA**</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -151,6 +154,13 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -186,9 +196,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B460E249-A904-7245-87F3-89795BD2FAE8}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
@@ -531,332 +549,335 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>0.1</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
+      <c r="A3" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3">
-        <v>0.1</v>
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
+      <c r="A4" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4">
-        <v>0.1</v>
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>0.1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
+      <c r="A5" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>0.1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>0.25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>0.1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>0.1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>0.25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6">
-        <v>0.1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>0.1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8">
-        <v>0.1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>0.1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>0.1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>0.1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
+      <c r="A11" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>0.1</v>
+      <c r="D11">
+        <v>0.1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
       </c>
       <c r="F11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12">
-        <v>0.1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>9</v>
+      <c r="A13" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>0.1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>0.1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>0.1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>0.1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>0.1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>0.1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <v>0.1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16">
-        <v>0.1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>30</v>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>0.1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>0.1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/tables/TableS1_micronutrients.xlsx
+++ b/tables/TableS1_micronutrients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/fortification/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9783955C-538F-354C-8E55-534D33285140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651F93FF-53F0-8F45-B5EE-D0A1AB89ABD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9680" yWindow="2420" windowWidth="25880" windowHeight="17600" xr2:uid="{07277DBE-0E05-8B48-8F1C-7ABD150983EB}"/>
   </bookViews>
@@ -137,7 +137,7 @@
     <t>Food vehicle(s)</t>
   </si>
   <si>
-    <t>EFSA**</t>
+    <t>EFSA***</t>
   </si>
 </sst>
 </file>
@@ -167,12 +167,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -196,15 +202,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -541,342 +548,344 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B460E249-A904-7245-87F3-89795BD2FAE8}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="B2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="2:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>0.1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4">
-        <v>0.1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>0.1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2">
         <v>0.25</v>
       </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7">
-        <v>0.1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>0.1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9">
-        <v>0.1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10">
-        <v>0.1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>0.1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13">
-        <v>0.1</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="G14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14">
-        <v>0.1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15">
-        <v>0.1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="D16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16">
-        <v>0.1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="D17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17">
-        <v>0.1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="D18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18">
-        <v>0.1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="D19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/tables/TableS1_micronutrients.xlsx
+++ b/tables/TableS1_micronutrients.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/fortification/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651F93FF-53F0-8F45-B5EE-D0A1AB89ABD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76870632-0648-D741-B9CE-78D084B2E77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9680" yWindow="2420" windowWidth="25880" windowHeight="17600" xr2:uid="{07277DBE-0E05-8B48-8F1C-7ABD150983EB}"/>
   </bookViews>
@@ -551,7 +551,7 @@
   <dimension ref="B2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -633,7 +633,7 @@
         <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
